--- a/Education/Questionnaire/Data/Use of Real Life 3D Models in Education.xlsx
+++ b/Education/Questionnaire/Data/Use of Real Life 3D Models in Education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Github/nvanvlasselaer/Photogrammetry_education_R/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Github/nvanvlasselaer/photogrammetry/Education/Questionnaire/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E76F860-5879-134D-88E5-5163CA9E7926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B8BE34-9562-5246-BD29-F3BA831D1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="760" windowWidth="33320" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>Added 3D models of detailed anatomy regions;A list of muscle insertions and innervation added to the annotations;More quizzes;3D Models for osteology;3D models of the plastic and plastinated anatomy collection;Nothing needs to be added</t>
   </si>
   <si>
-    <t>Added 3D models of detailed anatomy regions;A list of muscle insertions and innervation added to the annotations;3D models of the plastic and plastinated anatomy collection;3D Models for osteology;More quizzes;Nothing needs to be added</t>
-  </si>
-  <si>
     <t>3D Models for osteology;Added 3D models of detailed anatomy regions;More quizzes;A list of muscle insertions and innervation added to the annotations;Nothing needs to be added;3D models of the plastic and plastinated anatomy collection</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>More 3D models: more deep and more superficial. Also the addition of the neck, trunk and organs would be a good idea.</t>
+  </si>
+  <si>
+    <t>Added 3D models of detailed anatomy regions;3D models of the plastic and plastinated anatomy collection;More quizzes;3D Models for osteology;A list of muscle insertions and innervation added to the annotations;Nothing needs to be added</t>
   </si>
 </sst>
 </file>
@@ -563,6 +563,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AH62" totalsRowShown="0">
   <autoFilter ref="A1:AH62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH62">
+    <sortCondition ref="F1:F62"/>
+  </sortState>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="32"/>
@@ -902,9 +905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2:AG62"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1298,7 +1301,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="AA4" t="s">
         <v>35</v>
@@ -1399,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="Z5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="s">
         <v>35</v>
@@ -1425,120 +1428,114 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
-        <v>45436.351712962998</v>
+        <v>45481.530717592599</v>
       </c>
       <c r="C6" s="1">
-        <v>45436.358043981498</v>
+        <v>45481.5331365741</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
         <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
         <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
         <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s">
         <v>39</v>
       </c>
       <c r="W6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
         <v>36</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s">
         <v>35</v>
       </c>
       <c r="AD6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s">
         <v>35</v>
       </c>
       <c r="AF6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
-        <v>45437.3100231481</v>
+        <v>45496.767997685201</v>
       </c>
       <c r="C7" s="1">
-        <v>45437.314143518503</v>
+        <v>45496.769710648099</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -1547,10 +1544,10 @@
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
         <v>35</v>
@@ -1559,52 +1556,52 @@
         <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" t="s">
         <v>44</v>
       </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>42</v>
-      </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
         <v>35</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="s">
         <v>35</v>
       </c>
       <c r="Z7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="AA7" t="s">
         <v>35</v>
       </c>
       <c r="AB7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="s">
         <v>35</v>
@@ -1616,36 +1613,30 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1">
-        <v>45443.6575578704</v>
+        <v>45496.771423611099</v>
       </c>
       <c r="C8" s="1">
-        <v>45443.663402777798</v>
+        <v>45496.7730324074</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1669,28 +1660,28 @@
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s">
         <v>39</v>
       </c>
       <c r="W8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X8" t="s">
         <v>36</v>
@@ -1699,48 +1690,42 @@
         <v>35</v>
       </c>
       <c r="Z8" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="AA8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s">
         <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1">
-        <v>45448.798460648097</v>
+        <v>45497.490532407406</v>
       </c>
       <c r="C9" s="1">
-        <v>45448.801203703697</v>
+        <v>45497.495532407411</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -1749,13 +1734,13 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
@@ -1764,31 +1749,31 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s">
         <v>35</v>
@@ -1800,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="Z9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AA9" t="s">
         <v>35</v>
@@ -1809,33 +1794,33 @@
         <v>35</v>
       </c>
       <c r="AC9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s">
         <v>35</v>
       </c>
       <c r="AF9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AH9" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>45463.706319444398</v>
+        <v>45436.351712962998</v>
       </c>
       <c r="C10" s="1">
-        <v>45463.707951388897</v>
+        <v>45436.358043981498</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1847,34 +1832,34 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R10" t="s">
         <v>43</v>
@@ -1889,25 +1874,25 @@
         <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AA10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s">
         <v>35</v>
@@ -1920,115 +1905,124 @@
       </c>
       <c r="AF10" t="s">
         <v>39</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>45464.016909722202</v>
+        <v>45443.6575578704</v>
       </c>
       <c r="C11" s="1">
-        <v>45464.492766203701</v>
+        <v>45443.663402777798</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
         <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s">
         <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB11" t="s">
         <v>35</v>
       </c>
       <c r="AC11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AD11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG11" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>45464.590671296297</v>
+        <v>45448.798460648097</v>
       </c>
       <c r="C12" s="1">
-        <v>45464.593472222201</v>
+        <v>45448.801203703697</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2043,10 +2037,10 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
@@ -2058,34 +2052,34 @@
         <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U12" t="s">
         <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X12" t="s">
         <v>35</v>
@@ -2094,7 +2088,7 @@
         <v>35</v>
       </c>
       <c r="Z12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s">
         <v>35</v>
@@ -2103,33 +2097,39 @@
         <v>35</v>
       </c>
       <c r="AC12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD12" t="s">
         <v>39</v>
       </c>
       <c r="AE12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF12" t="s">
         <v>37</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>45466.459085648101</v>
+        <v>45463.706319444398</v>
       </c>
       <c r="C13" s="1">
-        <v>45466.471712963001</v>
+        <v>45463.707951388897</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -2138,61 +2138,61 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
         <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AA13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s">
         <v>35</v>
@@ -2204,27 +2204,21 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>45467.446180555598</v>
+        <v>45464.590671296297</v>
       </c>
       <c r="C14" s="1">
-        <v>45467.451076388897</v>
+        <v>45464.593472222201</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2236,52 +2230,52 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
         <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s">
         <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X14" t="s">
         <v>35</v>
@@ -2290,42 +2284,36 @@
         <v>35</v>
       </c>
       <c r="Z14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AA14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="s">
         <v>35</v>
       </c>
       <c r="AD14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AF14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45468.524490740703</v>
+        <v>45467.446180555598</v>
       </c>
       <c r="C15" s="1">
-        <v>45468.526967592603</v>
+        <v>45467.451076388897</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2337,37 +2325,37 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
         <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
         <v>42</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S15" t="s">
         <v>42</v>
@@ -2376,93 +2364,99 @@
         <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC15" t="s">
         <v>35</v>
       </c>
       <c r="AD15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s">
         <v>35</v>
       </c>
       <c r="AF15" t="s">
-        <v>82</v>
+        <v>39</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45468.670960648102</v>
+        <v>45468.524490740703</v>
       </c>
       <c r="C16" s="1">
-        <v>45468.702476851897</v>
+        <v>45468.526967592603</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
         <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
         <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s">
         <v>42</v>
@@ -2471,7 +2465,7 @@
         <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
         <v>37</v>
@@ -2486,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA16" t="s">
         <v>35</v>
@@ -2498,19 +2492,13 @@
         <v>35</v>
       </c>
       <c r="AD16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF16" t="s">
         <v>82</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
@@ -2587,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="Z17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA17" t="s">
         <v>82</v>
@@ -2682,7 +2670,7 @@
         <v>35</v>
       </c>
       <c r="Z18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA18" t="s">
         <v>35</v>
@@ -2777,7 +2765,7 @@
         <v>35</v>
       </c>
       <c r="Z19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA19" t="s">
         <v>37</v>
@@ -2875,7 +2863,7 @@
         <v>35</v>
       </c>
       <c r="Z20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA20" t="s">
         <v>35</v>
@@ -2976,7 +2964,7 @@
         <v>35</v>
       </c>
       <c r="Z21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA21" t="s">
         <v>35</v>
@@ -3071,7 +3059,7 @@
         <v>35</v>
       </c>
       <c r="Z22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA22" t="s">
         <v>37</v>
@@ -3368,7 +3356,7 @@
         <v>37</v>
       </c>
       <c r="Z25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA25" t="s">
         <v>35</v>
@@ -3463,7 +3451,7 @@
         <v>37</v>
       </c>
       <c r="Z26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA26" t="s">
         <v>35</v>
@@ -3492,67 +3480,67 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>45469.4077314815</v>
+        <v>45469.407962963</v>
       </c>
       <c r="C27" s="1">
-        <v>45469.410127314797</v>
+        <v>45469.425960648099</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s">
         <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U27" t="s">
         <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s">
         <v>35</v>
@@ -3564,7 +3552,7 @@
         <v>37</v>
       </c>
       <c r="Z27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA27" t="s">
         <v>35</v>
@@ -3573,27 +3561,33 @@
         <v>35</v>
       </c>
       <c r="AC27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD27" t="s">
         <v>35</v>
       </c>
       <c r="AE27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>45469.407962963</v>
+        <v>45469.446689814802</v>
       </c>
       <c r="C28" s="1">
-        <v>45469.425960648099</v>
+        <v>45469.481481481504</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3602,55 +3596,55 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
         <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
         <v>35</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U28" t="s">
         <v>35</v>
       </c>
       <c r="V28" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X28" t="s">
         <v>37</v>
@@ -3659,7 +3653,7 @@
         <v>37</v>
       </c>
       <c r="Z28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AA28" t="s">
         <v>35</v>
@@ -3668,33 +3662,33 @@
         <v>35</v>
       </c>
       <c r="AC28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD28" t="s">
         <v>35</v>
       </c>
       <c r="AE28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF28" t="s">
         <v>35</v>
       </c>
       <c r="AG28" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AH28" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>45469.446689814802</v>
+        <v>45469.490532407399</v>
       </c>
       <c r="C29" s="1">
-        <v>45469.481481481504</v>
+        <v>45469.501331018502</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -3703,61 +3697,61 @@
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
         <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
         <v>35</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V29" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="W29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z29" t="s">
         <v>102</v>
@@ -3766,36 +3760,36 @@
         <v>35</v>
       </c>
       <c r="AB29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AF29" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="AG29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>45469.490532407399</v>
+        <v>45469.503831018497</v>
       </c>
       <c r="C30" s="1">
-        <v>45469.501331018502</v>
+        <v>45469.508275462998</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -3804,49 +3798,49 @@
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
         <v>35</v>
       </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N30" t="s">
         <v>35</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V30" t="s">
         <v>35</v>
@@ -3855,7 +3849,7 @@
         <v>35</v>
       </c>
       <c r="X30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y30" t="s">
         <v>35</v>
@@ -3864,39 +3858,33 @@
         <v>103</v>
       </c>
       <c r="AA30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AF30" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>45469.503831018497</v>
+        <v>45469.512118055602</v>
       </c>
       <c r="C31" s="1">
-        <v>45469.508275462998</v>
+        <v>45469.542534722197</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3905,93 +3893,93 @@
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s">
         <v>104</v>
       </c>
       <c r="AA31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB31" t="s">
         <v>36</v>
       </c>
       <c r="AC31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1">
-        <v>45469.512118055602</v>
+        <v>45469.733425925901</v>
       </c>
       <c r="C32" s="1">
-        <v>45469.542534722197</v>
+        <v>45469.764155092598</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -4000,55 +3988,55 @@
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
         <v>36</v>
       </c>
       <c r="K32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" t="s">
         <v>36</v>
       </c>
       <c r="M32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R32" t="s">
         <v>42</v>
       </c>
       <c r="S32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s">
         <v>36</v>
       </c>
       <c r="V32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X32" t="s">
         <v>36</v>
@@ -4057,13 +4045,13 @@
         <v>36</v>
       </c>
       <c r="Z32" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AA32" t="s">
         <v>35</v>
       </c>
       <c r="AB32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC32" t="s">
         <v>36</v>
@@ -4072,66 +4060,72 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AF32" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
-        <v>45469.551608796297</v>
+        <v>45481.533425925903</v>
       </c>
       <c r="C33" s="1">
-        <v>45469.553298611099</v>
+        <v>45481.534768518497</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T33" t="s">
         <v>42</v>
@@ -4140,10 +4134,10 @@
         <v>36</v>
       </c>
       <c r="V33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X33" t="s">
         <v>35</v>
@@ -4152,7 +4146,7 @@
         <v>35</v>
       </c>
       <c r="Z33" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="AA33" t="s">
         <v>35</v>
@@ -4164,51 +4158,45 @@
         <v>35</v>
       </c>
       <c r="AD33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF33" t="s">
         <v>37</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
-        <v>45469.5524421296</v>
+        <v>45481.534803240698</v>
       </c>
       <c r="C34" s="1">
-        <v>45469.5542824074</v>
+        <v>45481.5362731481</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
         <v>35</v>
@@ -4217,52 +4205,52 @@
         <v>35</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T34" t="s">
         <v>42</v>
       </c>
       <c r="U34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AA34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD34" t="s">
         <v>39</v>
@@ -4276,13 +4264,13 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>45469.552291666703</v>
+        <v>45437.3100231481</v>
       </c>
       <c r="C35" s="1">
-        <v>45469.555243055598</v>
+        <v>45437.314143518503</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4291,19 +4279,19 @@
         <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
         <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
         <v>36</v>
@@ -4315,34 +4303,34 @@
         <v>36</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q35" t="s">
         <v>44</v>
       </c>
       <c r="R35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s">
         <v>36</v>
       </c>
       <c r="X35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="s">
         <v>35</v>
@@ -4354,33 +4342,36 @@
         <v>35</v>
       </c>
       <c r="AB35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE35" t="s">
         <v>35</v>
       </c>
       <c r="AF35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG35" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
-        <v>45469.555324074099</v>
+        <v>45464.016909722202</v>
       </c>
       <c r="C36" s="1">
-        <v>45469.558483796303</v>
+        <v>45464.492766203701</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -4389,13 +4380,13 @@
         <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
@@ -4404,13 +4395,13 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M36" t="s">
         <v>37</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
@@ -4434,48 +4425,51 @@
         <v>35</v>
       </c>
       <c r="V36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s">
         <v>35</v>
       </c>
       <c r="X36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s">
         <v>35</v>
       </c>
       <c r="Z36" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="AA36" t="s">
         <v>37</v>
       </c>
       <c r="AB36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC36" t="s">
         <v>39</v>
       </c>
       <c r="AD36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE36" t="s">
         <v>37</v>
       </c>
       <c r="AF36" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1">
-        <v>45469.559016203697</v>
+        <v>45466.459085648101</v>
       </c>
       <c r="C37" s="1">
-        <v>45469.561620370398</v>
+        <v>45466.471712963001</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -4484,25 +4478,25 @@
         <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
         <v>35</v>
@@ -4526,57 +4520,57 @@
         <v>42</v>
       </c>
       <c r="U37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X37" t="s">
         <v>35</v>
       </c>
       <c r="Y37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z37" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="AA37" t="s">
         <v>35</v>
       </c>
       <c r="AB37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC37" t="s">
         <v>35</v>
       </c>
       <c r="AD37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s">
         <v>37</v>
       </c>
       <c r="AG37" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AH37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1">
-        <v>45469.561574074098</v>
+        <v>45468.670960648102</v>
       </c>
       <c r="C38" s="1">
-        <v>45469.565358796302</v>
+        <v>45468.702476851897</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -4585,25 +4579,25 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N38" t="s">
         <v>36</v>
@@ -4627,51 +4621,57 @@
         <v>42</v>
       </c>
       <c r="U38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z38" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AA38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AD38" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="AE38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF38" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1">
-        <v>45469.589074074102</v>
+        <v>45469.4077314815</v>
       </c>
       <c r="C39" s="1">
-        <v>45469.592106481497</v>
+        <v>45469.410127314797</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -4680,19 +4680,19 @@
         <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
         <v>36</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L39" t="s">
         <v>36</v>
@@ -4701,72 +4701,72 @@
         <v>36</v>
       </c>
       <c r="N39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S39" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" t="s">
         <v>44</v>
       </c>
-      <c r="T39" t="s">
-        <v>43</v>
-      </c>
       <c r="U39" t="s">
         <v>35</v>
       </c>
       <c r="V39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W39" t="s">
         <v>35</v>
       </c>
       <c r="X39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AA39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD39" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AE39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF39" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
-        <v>45469.650636574101</v>
+        <v>45469.551608796297</v>
       </c>
       <c r="C40" s="1">
-        <v>45469.654062499998</v>
+        <v>45469.553298611099</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -4775,28 +4775,28 @@
         <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
         <v>36</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
@@ -4820,34 +4820,34 @@
         <v>36</v>
       </c>
       <c r="V40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W40" t="s">
         <v>36</v>
       </c>
       <c r="X40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y40" t="s">
         <v>35</v>
       </c>
       <c r="Z40" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AA40" t="s">
         <v>35</v>
       </c>
       <c r="AB40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD40" t="s">
         <v>37</v>
       </c>
       <c r="AE40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF40" t="s">
         <v>37</v>
@@ -4861,13 +4861,13 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1">
-        <v>45469.695150462998</v>
+        <v>45469.5524421296</v>
       </c>
       <c r="C41" s="1">
-        <v>45469.7019560185</v>
+        <v>45469.5542824074</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -4876,19 +4876,19 @@
         <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L41" t="s">
         <v>35</v>
@@ -4897,78 +4897,72 @@
         <v>35</v>
       </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q41" t="s">
         <v>44</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>44</v>
       </c>
-      <c r="Q41" t="s">
-        <v>42</v>
-      </c>
-      <c r="R41" t="s">
-        <v>43</v>
-      </c>
       <c r="S41" t="s">
         <v>43</v>
       </c>
       <c r="T41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V41" t="s">
         <v>35</v>
       </c>
       <c r="W41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z41" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="AA41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AB41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AE41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
-        <v>45468.589606481502</v>
+        <v>45469.552291666703</v>
       </c>
       <c r="C42" s="1">
-        <v>45469.714502314797</v>
+        <v>45469.555243055598</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -4980,7 +4974,7 @@
         <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
         <v>35</v>
@@ -4989,10 +4983,10 @@
         <v>36</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M42" t="s">
         <v>36</v>
@@ -5016,7 +5010,7 @@
         <v>43</v>
       </c>
       <c r="T42" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="U42" t="s">
         <v>36</v>
@@ -5034,7 +5028,7 @@
         <v>35</v>
       </c>
       <c r="Z42" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AA42" t="s">
         <v>35</v>
@@ -5043,128 +5037,125 @@
         <v>35</v>
       </c>
       <c r="AC42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD42" t="s">
         <v>37</v>
       </c>
       <c r="AE42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF42" t="s">
         <v>37</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
-        <v>45469.733425925901</v>
+        <v>45469.555324074099</v>
       </c>
       <c r="C43" s="1">
-        <v>45469.764155092598</v>
+        <v>45469.558483796303</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
         <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s">
         <v>35</v>
       </c>
       <c r="L43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R43" t="s">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X43" t="s">
         <v>36</v>
       </c>
       <c r="Y43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z43" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AD43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE43" t="s">
         <v>37</v>
       </c>
       <c r="AF43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
-        <v>45470.004039351901</v>
+        <v>45469.559016203697</v>
       </c>
       <c r="C44" s="1">
-        <v>45470.005057870403</v>
+        <v>45469.561620370398</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -5173,13 +5164,13 @@
         <v>54</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s">
         <v>39</v>
@@ -5188,13 +5179,13 @@
         <v>39</v>
       </c>
       <c r="L44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O44" t="s">
         <v>42</v>
@@ -5224,19 +5215,19 @@
         <v>35</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y44" t="s">
         <v>37</v>
       </c>
       <c r="Z44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AA44" t="s">
         <v>35</v>
       </c>
       <c r="AB44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC44" t="s">
         <v>35</v>
@@ -5248,18 +5239,24 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
-        <v>45470.005555555603</v>
+        <v>45469.561574074098</v>
       </c>
       <c r="C45" s="1">
-        <v>45470.0070949074</v>
+        <v>45469.565358796302</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
@@ -5271,22 +5268,22 @@
         <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
         <v>37</v>
       </c>
       <c r="J45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -5310,51 +5307,51 @@
         <v>42</v>
       </c>
       <c r="U45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V45" t="s">
         <v>39</v>
       </c>
       <c r="W45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z45" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AA45" t="s">
         <v>36</v>
       </c>
       <c r="AB45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AD45" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AE45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1">
-        <v>45470.368541666699</v>
+        <v>45469.589074074102</v>
       </c>
       <c r="C46" s="1">
-        <v>45470.374166666697</v>
+        <v>45469.592106481497</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
@@ -5363,79 +5360,79 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q46" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" t="s">
         <v>44</v>
       </c>
-      <c r="R46" t="s">
-        <v>38</v>
-      </c>
-      <c r="S46" t="s">
-        <v>47</v>
-      </c>
       <c r="T46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="W46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC46" t="s">
         <v>36</v>
       </c>
       <c r="AD46" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AE46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s">
         <v>82</v>
@@ -5443,13 +5440,13 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1">
-        <v>45470.376145833303</v>
+        <v>45469.650636574101</v>
       </c>
       <c r="C47" s="1">
-        <v>45470.559872685197</v>
+        <v>45469.654062499998</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
@@ -5458,25 +5455,25 @@
         <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N47" t="s">
         <v>35</v>
@@ -5485,28 +5482,28 @@
         <v>42</v>
       </c>
       <c r="P47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S47" t="s">
         <v>42</v>
       </c>
       <c r="T47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U47" t="s">
         <v>36</v>
       </c>
       <c r="V47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X47" t="s">
         <v>36</v>
@@ -5515,36 +5512,42 @@
         <v>35</v>
       </c>
       <c r="Z47" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AA47" t="s">
         <v>35</v>
       </c>
       <c r="AB47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF47" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1">
-        <v>45470.652685185203</v>
+        <v>45469.695150462998</v>
       </c>
       <c r="C48" s="1">
-        <v>45470.654282407399</v>
+        <v>45469.7019560185</v>
       </c>
       <c r="D48" t="s">
         <v>33</v>
@@ -5556,10 +5559,10 @@
         <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
         <v>35</v>
@@ -5568,7 +5571,7 @@
         <v>35</v>
       </c>
       <c r="L48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M48" t="s">
         <v>35</v>
@@ -5577,40 +5580,40 @@
         <v>35</v>
       </c>
       <c r="O48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q48" t="s">
         <v>42</v>
       </c>
       <c r="R48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W48" t="s">
         <v>35</v>
       </c>
       <c r="X48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z48" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="AA48" t="s">
         <v>35</v>
@@ -5622,48 +5625,54 @@
         <v>35</v>
       </c>
       <c r="AD48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE48" t="s">
         <v>37</v>
       </c>
       <c r="AF48" t="s">
         <v>39</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1">
-        <v>45481.530717592599</v>
+        <v>45468.589606481502</v>
       </c>
       <c r="C49" s="1">
-        <v>45481.5331365741</v>
+        <v>45469.714502314797</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J49" t="s">
         <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M49" t="s">
         <v>36</v>
@@ -5672,40 +5681,40 @@
         <v>36</v>
       </c>
       <c r="O49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y49" t="s">
         <v>35</v>
       </c>
       <c r="Z49" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AA49" t="s">
         <v>35</v>
@@ -5717,10 +5726,10 @@
         <v>35</v>
       </c>
       <c r="AD49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF49" t="s">
         <v>37</v>
@@ -5728,79 +5737,79 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1">
-        <v>45481.533425925903</v>
+        <v>45470.004039351901</v>
       </c>
       <c r="C50" s="1">
-        <v>45481.534768518497</v>
+        <v>45470.005057870403</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s">
         <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O50" t="s">
         <v>42</v>
       </c>
       <c r="P50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T50" t="s">
         <v>42</v>
       </c>
       <c r="U50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W50" t="s">
         <v>35</v>
       </c>
       <c r="X50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AA50" t="s">
         <v>35</v>
@@ -5812,33 +5821,33 @@
         <v>35</v>
       </c>
       <c r="AD50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1">
-        <v>45481.534803240698</v>
+        <v>45470.005555555603</v>
       </c>
       <c r="C51" s="1">
-        <v>45481.5362731481</v>
+        <v>45470.0070949074</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
         <v>35</v>
@@ -5853,10 +5862,10 @@
         <v>36</v>
       </c>
       <c r="L51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5883,10 +5892,10 @@
         <v>35</v>
       </c>
       <c r="V51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X51" t="s">
         <v>36</v>
@@ -5895,10 +5904,10 @@
         <v>36</v>
       </c>
       <c r="Z51" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AA51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB51" t="s">
         <v>36</v>
@@ -5907,24 +5916,24 @@
         <v>35</v>
       </c>
       <c r="AD51" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AE51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1">
-        <v>45481.536053240699</v>
+        <v>45470.368541666699</v>
       </c>
       <c r="C52" s="1">
-        <v>45481.537511574097</v>
+        <v>45470.374166666697</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
@@ -5936,70 +5945,70 @@
         <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s">
         <v>35</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L52" t="s">
         <v>35</v>
       </c>
       <c r="M52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P52" t="s">
         <v>42</v>
       </c>
       <c r="Q52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R52" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s">
         <v>47</v>
       </c>
       <c r="T52" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AA52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD52" t="s">
         <v>39</v>
@@ -6008,18 +6017,18 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
-        <v>45481.547870370399</v>
+        <v>45470.376145833303</v>
       </c>
       <c r="C53" s="1">
-        <v>45481.550439814797</v>
+        <v>45470.559872685197</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
@@ -6028,13 +6037,13 @@
         <v>54</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s">
         <v>35</v>
@@ -6049,7 +6058,7 @@
         <v>35</v>
       </c>
       <c r="N53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O53" t="s">
         <v>42</v>
@@ -6058,34 +6067,34 @@
         <v>43</v>
       </c>
       <c r="Q53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W53" t="s">
         <v>35</v>
       </c>
       <c r="X53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z53" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="AA53" t="s">
         <v>35</v>
@@ -6108,13 +6117,13 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
-        <v>45481.536307870403</v>
+        <v>45470.652685185203</v>
       </c>
       <c r="C54" s="1">
-        <v>45481.652858796297</v>
+        <v>45470.654282407399</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
@@ -6126,10 +6135,10 @@
         <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J54" t="s">
         <v>35</v>
@@ -6138,7 +6147,7 @@
         <v>35</v>
       </c>
       <c r="L54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M54" t="s">
         <v>35</v>
@@ -6147,40 +6156,40 @@
         <v>35</v>
       </c>
       <c r="O54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U54" t="s">
         <v>35</v>
       </c>
       <c r="V54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W54" t="s">
         <v>35</v>
       </c>
       <c r="X54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AA54" t="s">
         <v>35</v>
@@ -6198,18 +6207,18 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
-        <v>45483.637222222198</v>
+        <v>45481.536053240699</v>
       </c>
       <c r="C55" s="1">
-        <v>45483.638622685197</v>
+        <v>45481.537511574097</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
@@ -6221,28 +6230,28 @@
         <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s">
         <v>37</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O55" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P55" t="s">
         <v>42</v>
@@ -6251,10 +6260,10 @@
         <v>42</v>
       </c>
       <c r="R55" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S55" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="T55" t="s">
         <v>42</v>
@@ -6263,10 +6272,10 @@
         <v>35</v>
       </c>
       <c r="V55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X55" t="s">
         <v>35</v>
@@ -6275,13 +6284,13 @@
         <v>35</v>
       </c>
       <c r="Z55" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AA55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC55" t="s">
         <v>35</v>
@@ -6293,18 +6302,18 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
-        <v>45483.748969907399</v>
+        <v>45481.547870370399</v>
       </c>
       <c r="C56" s="1">
-        <v>45483.750185185199</v>
+        <v>45481.550439814797</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
@@ -6319,16 +6328,16 @@
         <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M56" t="s">
         <v>35</v>
@@ -6340,16 +6349,16 @@
         <v>42</v>
       </c>
       <c r="P56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T56" t="s">
         <v>42</v>
@@ -6364,19 +6373,19 @@
         <v>35</v>
       </c>
       <c r="X56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z56" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="AA56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC56" t="s">
         <v>35</v>
@@ -6388,18 +6397,18 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
-        <v>45496.7576736111</v>
+        <v>45481.536307870403</v>
       </c>
       <c r="C57" s="1">
-        <v>45496.7605092593</v>
+        <v>45481.652858796297</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -6411,10 +6420,10 @@
         <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J57" t="s">
         <v>35</v>
@@ -6432,22 +6441,22 @@
         <v>35</v>
       </c>
       <c r="O57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U57" t="s">
         <v>35</v>
@@ -6459,13 +6468,13 @@
         <v>35</v>
       </c>
       <c r="X57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z57" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="AA57" t="s">
         <v>35</v>
@@ -6474,13 +6483,13 @@
         <v>35</v>
       </c>
       <c r="AC57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF57" t="s">
         <v>37</v>
@@ -6488,13 +6497,13 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
-        <v>45496.760578703703</v>
+        <v>45483.637222222198</v>
       </c>
       <c r="C58" s="1">
-        <v>45496.762986111098</v>
+        <v>45483.638622685197</v>
       </c>
       <c r="D58" t="s">
         <v>33</v>
@@ -6527,19 +6536,19 @@
         <v>36</v>
       </c>
       <c r="O58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T58" t="s">
         <v>42</v>
@@ -6551,19 +6560,19 @@
         <v>39</v>
       </c>
       <c r="W58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z58" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AA58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB58" t="s">
         <v>36</v>
@@ -6575,7 +6584,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF58" t="s">
         <v>37</v>
@@ -6583,13 +6592,13 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
-        <v>45496.763020833299</v>
+        <v>45483.748969907399</v>
       </c>
       <c r="C59" s="1">
-        <v>45496.765648148103</v>
+        <v>45483.750185185199</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
@@ -6604,16 +6613,16 @@
         <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M59" t="s">
         <v>35</v>
@@ -6622,19 +6631,19 @@
         <v>36</v>
       </c>
       <c r="O59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R59" t="s">
         <v>42</v>
       </c>
       <c r="S59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T59" t="s">
         <v>42</v>
@@ -6643,7 +6652,7 @@
         <v>35</v>
       </c>
       <c r="V59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W59" t="s">
         <v>35</v>
@@ -6655,54 +6664,48 @@
         <v>35</v>
       </c>
       <c r="Z59" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AA59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AE59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AF59" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>45496.767997685201</v>
+        <v>45496.7576736111</v>
       </c>
       <c r="C60" s="1">
-        <v>45496.769710648099</v>
+        <v>45496.7605092593</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
         <v>39</v>
@@ -6714,7 +6717,7 @@
         <v>35</v>
       </c>
       <c r="L60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M60" t="s">
         <v>35</v>
@@ -6735,7 +6738,7 @@
         <v>42</v>
       </c>
       <c r="S60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T60" t="s">
         <v>42</v>
@@ -6744,7 +6747,7 @@
         <v>35</v>
       </c>
       <c r="V60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W60" t="s">
         <v>35</v>
@@ -6756,7 +6759,7 @@
         <v>35</v>
       </c>
       <c r="Z60" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AA60" t="s">
         <v>35</v>
@@ -6765,10 +6768,10 @@
         <v>35</v>
       </c>
       <c r="AC60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE60" t="s">
         <v>35</v>
@@ -6779,19 +6782,19 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
-        <v>45496.771423611099</v>
+        <v>45496.760578703703</v>
       </c>
       <c r="C61" s="1">
-        <v>45496.7730324074</v>
+        <v>45496.762986111098</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -6824,13 +6827,13 @@
         <v>43</v>
       </c>
       <c r="Q61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T61" t="s">
         <v>42</v>
@@ -6848,10 +6851,10 @@
         <v>36</v>
       </c>
       <c r="Y61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z61" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="AA61" t="s">
         <v>36</v>
@@ -6866,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF61" t="s">
         <v>37</v>
@@ -6874,19 +6877,19 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>45497.490532407406</v>
+        <v>45496.763020833299</v>
       </c>
       <c r="C62" s="1">
-        <v>45497.495532407411</v>
+        <v>45496.765648148103</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -6895,13 +6898,13 @@
         <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s">
         <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L62" t="s">
         <v>35</v>
@@ -6910,31 +6913,31 @@
         <v>35</v>
       </c>
       <c r="N62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S62" t="s">
         <v>44</v>
       </c>
       <c r="T62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U62" t="s">
         <v>35</v>
       </c>
       <c r="V62" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="W62" t="s">
         <v>35</v>
@@ -6946,7 +6949,7 @@
         <v>35</v>
       </c>
       <c r="Z62" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="AA62" t="s">
         <v>35</v>
@@ -6955,22 +6958,22 @@
         <v>35</v>
       </c>
       <c r="AC62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AF62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AG62" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
